--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Ltbr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H2">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.1359788021329</v>
+        <v>14.29506233333333</v>
       </c>
       <c r="N2">
-        <v>14.1359788021329</v>
+        <v>42.885187</v>
       </c>
       <c r="O2">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="P2">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="Q2">
-        <v>30.21070462673752</v>
+        <v>7.678487901892889</v>
       </c>
       <c r="R2">
-        <v>30.21070462673752</v>
+        <v>69.106391117036</v>
       </c>
       <c r="S2">
-        <v>0.08012601652173997</v>
+        <v>0.01686835307430351</v>
       </c>
       <c r="T2">
-        <v>0.08012601652173997</v>
+        <v>0.0168683530743035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H3">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.0292074716628</v>
+        <v>21.21615033333333</v>
       </c>
       <c r="N3">
-        <v>21.0292074716628</v>
+        <v>63.648451</v>
       </c>
       <c r="O3">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="P3">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="Q3">
-        <v>44.94256707324211</v>
+        <v>11.39609956644756</v>
       </c>
       <c r="R3">
-        <v>44.94256707324211</v>
+        <v>102.564896098028</v>
       </c>
       <c r="S3">
-        <v>0.1191984402989705</v>
+        <v>0.02503532383105865</v>
       </c>
       <c r="T3">
-        <v>0.1191984402989705</v>
+        <v>0.02503532383105864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H4">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.694505123614</v>
+        <v>14.99890066666667</v>
       </c>
       <c r="N4">
-        <v>14.694505123614</v>
+        <v>44.996702</v>
       </c>
       <c r="O4">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="P4">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="Q4">
-        <v>31.40435905708923</v>
+        <v>8.056549501161777</v>
       </c>
       <c r="R4">
-        <v>31.40435905708923</v>
+        <v>72.50894551045599</v>
       </c>
       <c r="S4">
-        <v>0.08329187365050622</v>
+        <v>0.01769889114661477</v>
       </c>
       <c r="T4">
-        <v>0.08329187365050622</v>
+        <v>0.01769889114661477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H5">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I5">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J5">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9765844716739</v>
+        <v>16.03541933333333</v>
       </c>
       <c r="N5">
-        <v>15.9765844716739</v>
+        <v>48.106258</v>
       </c>
       <c r="O5">
-        <v>0.2301254690953327</v>
+        <v>0.228130995884431</v>
       </c>
       <c r="P5">
-        <v>0.2301254690953327</v>
+        <v>0.2281309958844309</v>
       </c>
       <c r="Q5">
-        <v>34.14435471175403</v>
+        <v>8.613307901824889</v>
       </c>
       <c r="R5">
-        <v>34.14435471175403</v>
+        <v>77.51977111642398</v>
       </c>
       <c r="S5">
-        <v>0.09055899766524576</v>
+        <v>0.01892199619014225</v>
       </c>
       <c r="T5">
-        <v>0.09055899766524576</v>
+        <v>0.01892199619014224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H6">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I6">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J6">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.58926201023466</v>
+        <v>3.744869</v>
       </c>
       <c r="N6">
-        <v>3.58926201023466</v>
+        <v>11.234607</v>
       </c>
       <c r="O6">
-        <v>0.05169944835679689</v>
+        <v>0.05327710343382351</v>
       </c>
       <c r="P6">
-        <v>0.05169944835679689</v>
+        <v>0.0532771034338235</v>
       </c>
       <c r="Q6">
-        <v>7.670790677954923</v>
+        <v>2.011528920977333</v>
       </c>
       <c r="R6">
-        <v>7.670790677954923</v>
+        <v>18.103760288796</v>
       </c>
       <c r="S6">
-        <v>0.02034477209951125</v>
+        <v>0.004418992449002071</v>
       </c>
       <c r="T6">
-        <v>0.02034477209951125</v>
+        <v>0.004418992449002069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H7">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I7">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J7">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.1359788021329</v>
+        <v>14.29506233333333</v>
       </c>
       <c r="N7">
-        <v>14.1359788021329</v>
+        <v>42.885187</v>
       </c>
       <c r="O7">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="P7">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="Q7">
-        <v>46.5597185578005</v>
+        <v>1.912217133184556</v>
       </c>
       <c r="R7">
-        <v>46.5597185578005</v>
+        <v>17.209954198661</v>
       </c>
       <c r="S7">
-        <v>0.1234875129363297</v>
+        <v>0.004200821069124543</v>
       </c>
       <c r="T7">
-        <v>0.1234875129363297</v>
+        <v>0.004200821069124541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H8">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I8">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J8">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.0292074716628</v>
+        <v>21.21615033333333</v>
       </c>
       <c r="N8">
-        <v>21.0292074716628</v>
+        <v>63.648451</v>
       </c>
       <c r="O8">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="P8">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="Q8">
-        <v>69.26396785672048</v>
+        <v>2.838034925739223</v>
       </c>
       <c r="R8">
-        <v>69.26396785672048</v>
+        <v>25.542314331653</v>
       </c>
       <c r="S8">
-        <v>0.1837046140240319</v>
+        <v>0.006234687841700237</v>
       </c>
       <c r="T8">
-        <v>0.1837046140240319</v>
+        <v>0.006234687841700234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H9">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I9">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J9">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.694505123614</v>
+        <v>14.99890066666667</v>
       </c>
       <c r="N9">
-        <v>14.694505123614</v>
+        <v>44.996702</v>
       </c>
       <c r="O9">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="P9">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="Q9">
-        <v>48.39933848785868</v>
+        <v>2.006367944745111</v>
       </c>
       <c r="R9">
-        <v>48.39933848785868</v>
+        <v>18.057311502706</v>
       </c>
       <c r="S9">
-        <v>0.1283666251162922</v>
+        <v>0.004407654647809241</v>
       </c>
       <c r="T9">
-        <v>0.1283666251162922</v>
+        <v>0.004407654647809239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H10">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I10">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J10">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9765844716739</v>
+        <v>16.03541933333333</v>
       </c>
       <c r="N10">
-        <v>15.9765844716739</v>
+        <v>48.106258</v>
       </c>
       <c r="O10">
-        <v>0.2301254690953327</v>
+        <v>0.228130995884431</v>
       </c>
       <c r="P10">
-        <v>0.2301254690953327</v>
+        <v>0.2281309958844309</v>
       </c>
       <c r="Q10">
-        <v>52.62212733396465</v>
+        <v>2.145020628241556</v>
       </c>
       <c r="R10">
-        <v>52.62212733396465</v>
+        <v>19.305185654174</v>
       </c>
       <c r="S10">
-        <v>0.1395664714300869</v>
+        <v>0.004712251392611185</v>
       </c>
       <c r="T10">
-        <v>0.1395664714300869</v>
+        <v>0.004712251392611182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,49 +1095,669 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H11">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I11">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J11">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.58926201023466</v>
+        <v>3.744869</v>
       </c>
       <c r="N11">
-        <v>3.58926201023466</v>
+        <v>11.234607</v>
       </c>
       <c r="O11">
-        <v>0.05169944835679689</v>
+        <v>0.05327710343382351</v>
       </c>
       <c r="P11">
-        <v>0.05169944835679689</v>
+        <v>0.0532771034338235</v>
       </c>
       <c r="Q11">
-        <v>11.8219637540427</v>
+        <v>0.5009423881023334</v>
       </c>
       <c r="R11">
-        <v>11.8219637540427</v>
+        <v>4.508481492921001</v>
       </c>
       <c r="S11">
-        <v>0.03135467625728563</v>
+        <v>0.001100486603659536</v>
       </c>
       <c r="T11">
-        <v>0.03135467625728563</v>
+        <v>0.001100486603659535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.280335</v>
+      </c>
+      <c r="H12">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J12">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.29506233333333</v>
+      </c>
+      <c r="N12">
+        <v>42.885187</v>
+      </c>
+      <c r="O12">
+        <v>0.2033714702773193</v>
+      </c>
+      <c r="P12">
+        <v>0.2033714702773193</v>
+      </c>
+      <c r="Q12">
+        <v>32.59753096588166</v>
+      </c>
+      <c r="R12">
+        <v>293.377778692935</v>
+      </c>
+      <c r="S12">
+        <v>0.07161132096691612</v>
+      </c>
+      <c r="T12">
+        <v>0.07161132096691608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.280335</v>
+      </c>
+      <c r="H13">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J13">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.21615033333333</v>
+      </c>
+      <c r="N13">
+        <v>63.648451</v>
+      </c>
+      <c r="O13">
+        <v>0.3018356678902651</v>
+      </c>
+      <c r="P13">
+        <v>0.3018356678902651</v>
+      </c>
+      <c r="Q13">
+        <v>48.37993017036166</v>
+      </c>
+      <c r="R13">
+        <v>435.4193715332549</v>
+      </c>
+      <c r="S13">
+        <v>0.1062826111404862</v>
+      </c>
+      <c r="T13">
+        <v>0.1062826111404861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.280335</v>
+      </c>
+      <c r="H14">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J14">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.99890066666667</v>
+      </c>
+      <c r="N14">
+        <v>44.996702</v>
+      </c>
+      <c r="O14">
+        <v>0.2133847625141612</v>
+      </c>
+      <c r="P14">
+        <v>0.2133847625141612</v>
+      </c>
+      <c r="Q14">
+        <v>34.20251815172332</v>
+      </c>
+      <c r="R14">
+        <v>307.82266336551</v>
+      </c>
+      <c r="S14">
+        <v>0.07513720925070645</v>
+      </c>
+      <c r="T14">
+        <v>0.07513720925070641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.280335</v>
+      </c>
+      <c r="H15">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J15">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.03541933333333</v>
+      </c>
+      <c r="N15">
+        <v>48.106258</v>
+      </c>
+      <c r="O15">
+        <v>0.228130995884431</v>
+      </c>
+      <c r="P15">
+        <v>0.2281309958844309</v>
+      </c>
+      <c r="Q15">
+        <v>36.56612794547666</v>
+      </c>
+      <c r="R15">
+        <v>329.09515150929</v>
+      </c>
+      <c r="S15">
+        <v>0.08032966446328602</v>
+      </c>
+      <c r="T15">
+        <v>0.08032966446328597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.280335</v>
+      </c>
+      <c r="H16">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J16">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.744869</v>
+      </c>
+      <c r="N16">
+        <v>11.234607</v>
+      </c>
+      <c r="O16">
+        <v>0.05327710343382351</v>
+      </c>
+      <c r="P16">
+        <v>0.0532771034338235</v>
+      </c>
+      <c r="Q16">
+        <v>8.539555851114999</v>
+      </c>
+      <c r="R16">
+        <v>76.85600266003499</v>
+      </c>
+      <c r="S16">
+        <v>0.01875997527570913</v>
+      </c>
+      <c r="T16">
+        <v>0.01875997527570912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.524757</v>
+      </c>
+      <c r="H17">
+        <v>10.574271</v>
+      </c>
+      <c r="I17">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J17">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.29506233333333</v>
+      </c>
+      <c r="N17">
+        <v>42.885187</v>
+      </c>
+      <c r="O17">
+        <v>0.2033714702773193</v>
+      </c>
+      <c r="P17">
+        <v>0.2033714702773193</v>
+      </c>
+      <c r="Q17">
+        <v>50.386621024853</v>
+      </c>
+      <c r="R17">
+        <v>453.479589223677</v>
+      </c>
+      <c r="S17">
+        <v>0.1106909751669752</v>
+      </c>
+      <c r="T17">
+        <v>0.1106909751669751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.524757</v>
+      </c>
+      <c r="H18">
+        <v>10.574271</v>
+      </c>
+      <c r="I18">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J18">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>21.21615033333333</v>
+      </c>
+      <c r="N18">
+        <v>63.648451</v>
+      </c>
+      <c r="O18">
+        <v>0.3018356678902651</v>
+      </c>
+      <c r="P18">
+        <v>0.3018356678902651</v>
+      </c>
+      <c r="Q18">
+        <v>74.781774400469</v>
+      </c>
+      <c r="R18">
+        <v>673.035969604221</v>
+      </c>
+      <c r="S18">
+        <v>0.1642830450770201</v>
+      </c>
+      <c r="T18">
+        <v>0.16428304507702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.524757</v>
+      </c>
+      <c r="H19">
+        <v>10.574271</v>
+      </c>
+      <c r="I19">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J19">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.99890066666667</v>
+      </c>
+      <c r="N19">
+        <v>44.996702</v>
+      </c>
+      <c r="O19">
+        <v>0.2133847625141612</v>
+      </c>
+      <c r="P19">
+        <v>0.2133847625141612</v>
+      </c>
+      <c r="Q19">
+        <v>52.86748011713799</v>
+      </c>
+      <c r="R19">
+        <v>475.807321054242</v>
+      </c>
+      <c r="S19">
+        <v>0.1161410074690308</v>
+      </c>
+      <c r="T19">
+        <v>0.1161410074690307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.524757</v>
+      </c>
+      <c r="H20">
+        <v>10.574271</v>
+      </c>
+      <c r="I20">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J20">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.03541933333333</v>
+      </c>
+      <c r="N20">
+        <v>48.106258</v>
+      </c>
+      <c r="O20">
+        <v>0.228130995884431</v>
+      </c>
+      <c r="P20">
+        <v>0.2281309958844309</v>
+      </c>
+      <c r="Q20">
+        <v>56.520956543102</v>
+      </c>
+      <c r="R20">
+        <v>508.688608887918</v>
+      </c>
+      <c r="S20">
+        <v>0.1241670838383916</v>
+      </c>
+      <c r="T20">
+        <v>0.1241670838383915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.524757</v>
+      </c>
+      <c r="H21">
+        <v>10.574271</v>
+      </c>
+      <c r="I21">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J21">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.744869</v>
+      </c>
+      <c r="N21">
+        <v>11.234607</v>
+      </c>
+      <c r="O21">
+        <v>0.05327710343382351</v>
+      </c>
+      <c r="P21">
+        <v>0.0532771034338235</v>
+      </c>
+      <c r="Q21">
+        <v>13.199753221833</v>
+      </c>
+      <c r="R21">
+        <v>118.797778996497</v>
+      </c>
+      <c r="S21">
+        <v>0.02899764910545279</v>
+      </c>
+      <c r="T21">
+        <v>0.02899764910545278</v>
       </c>
     </row>
   </sheetData>
